--- a/file/confirm/人事_1.1_自定义代码检查确认.xlsx
+++ b/file/confirm/人事_1.1_自定义代码检查确认.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="138">
   <si>
     <t>代码名称</t>
   </si>
@@ -835,12 +835,6 @@
       <c r="D2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
       <c r="G2" t="s">
         <v>137</v>
       </c>
@@ -858,12 +852,6 @@
       <c r="D3" t="s">
         <v>66</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
       <c r="G3" t="s">
         <v>137</v>
       </c>
@@ -881,12 +869,6 @@
       <c r="D4" t="s">
         <v>66</v>
       </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s">
-        <v>66</v>
-      </c>
       <c r="G4" t="s">
         <v>137</v>
       </c>
@@ -904,12 +886,6 @@
       <c r="D5" t="s">
         <v>66</v>
       </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>66</v>
-      </c>
       <c r="G5" t="s">
         <v>137</v>
       </c>
@@ -927,12 +903,6 @@
       <c r="D6" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>66</v>
-      </c>
       <c r="G6" t="s">
         <v>137</v>
       </c>
@@ -950,12 +920,6 @@
       <c r="D7" t="s">
         <v>66</v>
       </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
       <c r="G7" t="s">
         <v>137</v>
       </c>
@@ -973,12 +937,6 @@
       <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
       <c r="G8" t="s">
         <v>137</v>
       </c>
@@ -996,12 +954,6 @@
       <c r="D9" t="s">
         <v>66</v>
       </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" t="s">
-        <v>66</v>
-      </c>
       <c r="G9" t="s">
         <v>137</v>
       </c>
@@ -1019,12 +971,6 @@
       <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
-      </c>
       <c r="G10" t="s">
         <v>137</v>
       </c>
@@ -1042,12 +988,6 @@
       <c r="D11" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>66</v>
-      </c>
       <c r="G11" t="s">
         <v>137</v>
       </c>
@@ -1065,12 +1005,6 @@
       <c r="D12" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
-        <v>66</v>
-      </c>
       <c r="G12" t="s">
         <v>137</v>
       </c>
@@ -1088,12 +1022,6 @@
       <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
       <c r="G13" t="s">
         <v>137</v>
       </c>
@@ -1111,12 +1039,6 @@
       <c r="D14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" t="s">
         <v>137</v>
       </c>
@@ -1134,12 +1056,6 @@
       <c r="D15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" t="s">
-        <v>66</v>
-      </c>
       <c r="G15" t="s">
         <v>137</v>
       </c>
@@ -1157,12 +1073,6 @@
       <c r="D16" t="s">
         <v>66</v>
       </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s">
-        <v>66</v>
-      </c>
       <c r="G16" t="s">
         <v>137</v>
       </c>
@@ -1180,12 +1090,6 @@
       <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" t="s">
         <v>137</v>
       </c>
@@ -1203,12 +1107,6 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" t="s">
-        <v>66</v>
-      </c>
       <c r="G18" t="s">
         <v>137</v>
       </c>
@@ -1226,12 +1124,6 @@
       <c r="D19" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" t="s">
-        <v>66</v>
-      </c>
       <c r="G19" t="s">
         <v>137</v>
       </c>
@@ -1249,12 +1141,6 @@
       <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" t="s">
-        <v>66</v>
-      </c>
       <c r="G20" t="s">
         <v>137</v>
       </c>
@@ -1272,12 +1158,6 @@
       <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
-      </c>
       <c r="G21" t="s">
         <v>137</v>
       </c>
@@ -1295,12 +1175,6 @@
       <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
       <c r="G22" t="s">
         <v>137</v>
       </c>
@@ -1318,12 +1192,6 @@
       <c r="D23" t="s">
         <v>66</v>
       </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" t="s">
-        <v>66</v>
-      </c>
       <c r="G23" t="s">
         <v>137</v>
       </c>
@@ -1341,12 +1209,6 @@
       <c r="D24" t="s">
         <v>66</v>
       </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
       <c r="G24" t="s">
         <v>137</v>
       </c>
@@ -1364,12 +1226,6 @@
       <c r="D25" t="s">
         <v>66</v>
       </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" t="s">
-        <v>66</v>
-      </c>
       <c r="G25" t="s">
         <v>137</v>
       </c>
@@ -1387,12 +1243,6 @@
       <c r="D26" t="s">
         <v>66</v>
       </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
       <c r="G26" t="s">
         <v>137</v>
       </c>
@@ -1410,12 +1260,6 @@
       <c r="D27" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>66</v>
-      </c>
       <c r="G27" t="s">
         <v>137</v>
       </c>
@@ -1433,12 +1277,6 @@
       <c r="D28" t="s">
         <v>66</v>
       </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
       <c r="G28" t="s">
         <v>137</v>
       </c>
@@ -1456,12 +1294,6 @@
       <c r="D29" t="s">
         <v>66</v>
       </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" t="s">
-        <v>66</v>
-      </c>
       <c r="G29" t="s">
         <v>137</v>
       </c>
@@ -1479,12 +1311,6 @@
       <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" t="s">
-        <v>66</v>
-      </c>
       <c r="G30" t="s">
         <v>137</v>
       </c>
@@ -1502,12 +1328,6 @@
       <c r="D31" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>66</v>
-      </c>
       <c r="G31" t="s">
         <v>137</v>
       </c>
@@ -1525,12 +1345,6 @@
       <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" t="s">
-        <v>66</v>
-      </c>
       <c r="G32" t="s">
         <v>137</v>
       </c>
@@ -1548,12 +1362,6 @@
       <c r="D33" t="s">
         <v>66</v>
       </c>
-      <c r="E33" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
-      </c>
       <c r="G33" t="s">
         <v>137</v>
       </c>
@@ -1569,12 +1377,6 @@
         <v>3006</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" t="s">
         <v>66</v>
       </c>
       <c r="G34" t="s">
@@ -1594,12 +1396,6 @@
       <c r="D35" t="s">
         <v>66</v>
       </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
-      </c>
       <c r="G35" t="s">
         <v>137</v>
       </c>
@@ -1617,12 +1413,6 @@
       <c r="D36" t="s">
         <v>66</v>
       </c>
-      <c r="E36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" t="s">
-        <v>66</v>
-      </c>
       <c r="G36" t="s">
         <v>137</v>
       </c>
@@ -1640,12 +1430,6 @@
       <c r="D37" t="s">
         <v>66</v>
       </c>
-      <c r="E37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" t="s">
-        <v>66</v>
-      </c>
       <c r="G37" t="s">
         <v>137</v>
       </c>
@@ -1663,12 +1447,6 @@
       <c r="D38" t="s">
         <v>66</v>
       </c>
-      <c r="E38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" t="s">
-        <v>66</v>
-      </c>
       <c r="G38" t="s">
         <v>137</v>
       </c>
@@ -1686,12 +1464,6 @@
       <c r="D39" t="s">
         <v>66</v>
       </c>
-      <c r="E39" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" t="s">
-        <v>66</v>
-      </c>
       <c r="G39" t="s">
         <v>137</v>
       </c>
@@ -1709,12 +1481,6 @@
       <c r="D40" t="s">
         <v>66</v>
       </c>
-      <c r="E40" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" t="s">
-        <v>66</v>
-      </c>
       <c r="G40" t="s">
         <v>137</v>
       </c>
@@ -1732,12 +1498,6 @@
       <c r="D41" t="s">
         <v>66</v>
       </c>
-      <c r="E41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" t="s">
-        <v>66</v>
-      </c>
       <c r="G41" t="s">
         <v>137</v>
       </c>
@@ -1755,12 +1515,6 @@
       <c r="D42" t="s">
         <v>66</v>
       </c>
-      <c r="E42" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" t="s">
-        <v>66</v>
-      </c>
       <c r="G42" t="s">
         <v>137</v>
       </c>
@@ -1778,12 +1532,6 @@
       <c r="D43" t="s">
         <v>66</v>
       </c>
-      <c r="E43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" t="s">
-        <v>66</v>
-      </c>
       <c r="G43" t="s">
         <v>137</v>
       </c>
@@ -1801,12 +1549,6 @@
       <c r="D44" t="s">
         <v>66</v>
       </c>
-      <c r="E44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F44" t="s">
-        <v>66</v>
-      </c>
       <c r="G44" t="s">
         <v>137</v>
       </c>
@@ -1824,12 +1566,6 @@
       <c r="D45" t="s">
         <v>66</v>
       </c>
-      <c r="E45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F45" t="s">
-        <v>66</v>
-      </c>
       <c r="G45" t="s">
         <v>137</v>
       </c>
@@ -1847,12 +1583,6 @@
       <c r="D46" t="s">
         <v>66</v>
       </c>
-      <c r="E46" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" t="s">
-        <v>66</v>
-      </c>
       <c r="G46" t="s">
         <v>137</v>
       </c>
@@ -1870,12 +1600,6 @@
       <c r="D47" t="s">
         <v>66</v>
       </c>
-      <c r="E47" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" t="s">
-        <v>66</v>
-      </c>
       <c r="G47" t="s">
         <v>137</v>
       </c>
@@ -1893,12 +1617,6 @@
       <c r="D48" t="s">
         <v>66</v>
       </c>
-      <c r="E48" t="s">
-        <v>66</v>
-      </c>
-      <c r="F48" t="s">
-        <v>66</v>
-      </c>
       <c r="G48" t="s">
         <v>137</v>
       </c>
@@ -1916,12 +1634,6 @@
       <c r="D49" t="s">
         <v>66</v>
       </c>
-      <c r="E49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F49" t="s">
-        <v>66</v>
-      </c>
       <c r="G49" t="s">
         <v>137</v>
       </c>
@@ -1939,12 +1651,6 @@
       <c r="D50" t="s">
         <v>66</v>
       </c>
-      <c r="E50" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" t="s">
-        <v>66</v>
-      </c>
       <c r="G50" t="s">
         <v>137</v>
       </c>
@@ -1962,12 +1668,6 @@
       <c r="D51" t="s">
         <v>66</v>
       </c>
-      <c r="E51" t="s">
-        <v>66</v>
-      </c>
-      <c r="F51" t="s">
-        <v>66</v>
-      </c>
       <c r="G51" t="s">
         <v>137</v>
       </c>
@@ -1985,12 +1685,6 @@
       <c r="D52" t="s">
         <v>66</v>
       </c>
-      <c r="E52" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" t="s">
-        <v>66</v>
-      </c>
       <c r="G52" t="s">
         <v>137</v>
       </c>
@@ -2008,12 +1702,6 @@
       <c r="D53" t="s">
         <v>66</v>
       </c>
-      <c r="E53" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" t="s">
-        <v>66</v>
-      </c>
       <c r="G53" t="s">
         <v>137</v>
       </c>
@@ -2031,12 +1719,6 @@
       <c r="D54" t="s">
         <v>66</v>
       </c>
-      <c r="E54" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" t="s">
-        <v>66</v>
-      </c>
       <c r="G54" t="s">
         <v>137</v>
       </c>
@@ -2054,12 +1736,6 @@
       <c r="D55" t="s">
         <v>66</v>
       </c>
-      <c r="E55" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" t="s">
-        <v>66</v>
-      </c>
       <c r="G55" t="s">
         <v>137</v>
       </c>
@@ -2077,12 +1753,6 @@
       <c r="D56" t="s">
         <v>66</v>
       </c>
-      <c r="E56" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" t="s">
-        <v>66</v>
-      </c>
       <c r="G56" t="s">
         <v>137</v>
       </c>
@@ -2100,12 +1770,6 @@
       <c r="D57" t="s">
         <v>66</v>
       </c>
-      <c r="E57" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" t="s">
-        <v>66</v>
-      </c>
       <c r="G57" t="s">
         <v>137</v>
       </c>
@@ -2123,12 +1787,6 @@
       <c r="D58" t="s">
         <v>66</v>
       </c>
-      <c r="E58" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" t="s">
-        <v>66</v>
-      </c>
       <c r="G58" t="s">
         <v>137</v>
       </c>
@@ -2146,12 +1804,6 @@
       <c r="D59" t="s">
         <v>66</v>
       </c>
-      <c r="E59" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" t="s">
-        <v>66</v>
-      </c>
       <c r="G59" t="s">
         <v>137</v>
       </c>
@@ -2169,12 +1821,6 @@
       <c r="D60" t="s">
         <v>66</v>
       </c>
-      <c r="E60" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" t="s">
-        <v>66</v>
-      </c>
       <c r="G60" t="s">
         <v>137</v>
       </c>
@@ -2192,12 +1838,6 @@
       <c r="D61" t="s">
         <v>66</v>
       </c>
-      <c r="E61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" t="s">
-        <v>66</v>
-      </c>
       <c r="G61" t="s">
         <v>137</v>
       </c>
@@ -2215,12 +1855,6 @@
       <c r="D62" t="s">
         <v>66</v>
       </c>
-      <c r="E62" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" t="s">
-        <v>66</v>
-      </c>
       <c r="G62" t="s">
         <v>137</v>
       </c>
@@ -2238,12 +1872,6 @@
       <c r="D63" t="s">
         <v>66</v>
       </c>
-      <c r="E63" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" t="s">
-        <v>66</v>
-      </c>
       <c r="G63" t="s">
         <v>137</v>
       </c>
@@ -2261,12 +1889,6 @@
       <c r="D64" t="s">
         <v>66</v>
       </c>
-      <c r="E64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" t="s">
-        <v>66</v>
-      </c>
       <c r="G64" t="s">
         <v>137</v>
       </c>
@@ -2284,12 +1906,6 @@
       <c r="D65" t="s">
         <v>66</v>
       </c>
-      <c r="E65" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" t="s">
-        <v>66</v>
-      </c>
       <c r="G65" t="s">
         <v>137</v>
       </c>
@@ -2307,12 +1923,6 @@
       <c r="D66" t="s">
         <v>66</v>
       </c>
-      <c r="E66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" t="s">
-        <v>66</v>
-      </c>
       <c r="G66" t="s">
         <v>137</v>
       </c>
@@ -2330,12 +1940,6 @@
       <c r="D67" t="s">
         <v>66</v>
       </c>
-      <c r="E67" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" t="s">
-        <v>66</v>
-      </c>
       <c r="G67" t="s">
         <v>137</v>
       </c>
@@ -2353,12 +1957,6 @@
       <c r="D68" t="s">
         <v>66</v>
       </c>
-      <c r="E68" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" t="s">
-        <v>66</v>
-      </c>
       <c r="G68" t="s">
         <v>137</v>
       </c>
@@ -2376,12 +1974,6 @@
       <c r="D69" t="s">
         <v>127</v>
       </c>
-      <c r="E69" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" t="s">
-        <v>66</v>
-      </c>
       <c r="G69" t="s">
         <v>137</v>
       </c>
@@ -2399,12 +1991,6 @@
       <c r="D70" t="s">
         <v>128</v>
       </c>
-      <c r="E70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70" t="s">
-        <v>66</v>
-      </c>
       <c r="G70" t="s">
         <v>137</v>
       </c>
@@ -2422,12 +2008,6 @@
       <c r="D71" t="s">
         <v>128</v>
       </c>
-      <c r="E71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" t="s">
-        <v>66</v>
-      </c>
       <c r="G71" t="s">
         <v>137</v>
       </c>
@@ -2445,12 +2025,6 @@
       <c r="D72" t="s">
         <v>128</v>
       </c>
-      <c r="E72" t="s">
-        <v>66</v>
-      </c>
-      <c r="F72" t="s">
-        <v>66</v>
-      </c>
       <c r="G72" t="s">
         <v>137</v>
       </c>
@@ -2468,12 +2042,6 @@
       <c r="D73" t="s">
         <v>128</v>
       </c>
-      <c r="E73" t="s">
-        <v>66</v>
-      </c>
-      <c r="F73" t="s">
-        <v>66</v>
-      </c>
       <c r="G73" t="s">
         <v>137</v>
       </c>
@@ -2491,12 +2059,6 @@
       <c r="D74" t="s">
         <v>127</v>
       </c>
-      <c r="E74" t="s">
-        <v>66</v>
-      </c>
-      <c r="F74" t="s">
-        <v>66</v>
-      </c>
       <c r="G74" t="s">
         <v>137</v>
       </c>
@@ -2514,12 +2076,6 @@
       <c r="D75" t="s">
         <v>129</v>
       </c>
-      <c r="E75" t="s">
-        <v>66</v>
-      </c>
-      <c r="F75" t="s">
-        <v>66</v>
-      </c>
       <c r="G75" t="s">
         <v>137</v>
       </c>
@@ -2537,12 +2093,6 @@
       <c r="D76" t="s">
         <v>129</v>
       </c>
-      <c r="E76" t="s">
-        <v>66</v>
-      </c>
-      <c r="F76" t="s">
-        <v>66</v>
-      </c>
       <c r="G76" t="s">
         <v>137</v>
       </c>
@@ -2560,12 +2110,6 @@
       <c r="D77" t="s">
         <v>127</v>
       </c>
-      <c r="E77" t="s">
-        <v>66</v>
-      </c>
-      <c r="F77" t="s">
-        <v>66</v>
-      </c>
       <c r="G77" t="s">
         <v>137</v>
       </c>
@@ -2583,12 +2127,6 @@
       <c r="D78" t="s">
         <v>130</v>
       </c>
-      <c r="E78" t="s">
-        <v>66</v>
-      </c>
-      <c r="F78" t="s">
-        <v>66</v>
-      </c>
       <c r="G78" t="s">
         <v>137</v>
       </c>
@@ -2606,12 +2144,6 @@
       <c r="D79" t="s">
         <v>130</v>
       </c>
-      <c r="E79" t="s">
-        <v>66</v>
-      </c>
-      <c r="F79" t="s">
-        <v>66</v>
-      </c>
       <c r="G79" t="s">
         <v>137</v>
       </c>
@@ -2629,12 +2161,6 @@
       <c r="D80" t="s">
         <v>130</v>
       </c>
-      <c r="E80" t="s">
-        <v>66</v>
-      </c>
-      <c r="F80" t="s">
-        <v>66</v>
-      </c>
       <c r="G80" t="s">
         <v>137</v>
       </c>
@@ -2652,12 +2178,6 @@
       <c r="D81" t="s">
         <v>130</v>
       </c>
-      <c r="E81" t="s">
-        <v>66</v>
-      </c>
-      <c r="F81" t="s">
-        <v>66</v>
-      </c>
       <c r="G81" t="s">
         <v>137</v>
       </c>
@@ -2675,12 +2195,6 @@
       <c r="D82" t="s">
         <v>130</v>
       </c>
-      <c r="E82" t="s">
-        <v>66</v>
-      </c>
-      <c r="F82" t="s">
-        <v>66</v>
-      </c>
       <c r="G82" t="s">
         <v>137</v>
       </c>
@@ -2698,12 +2212,6 @@
       <c r="D83" t="s">
         <v>127</v>
       </c>
-      <c r="E83" t="s">
-        <v>66</v>
-      </c>
-      <c r="F83" t="s">
-        <v>66</v>
-      </c>
       <c r="G83" t="s">
         <v>137</v>
       </c>
@@ -2721,12 +2229,6 @@
       <c r="D84" t="s">
         <v>131</v>
       </c>
-      <c r="E84" t="s">
-        <v>66</v>
-      </c>
-      <c r="F84" t="s">
-        <v>66</v>
-      </c>
       <c r="G84" t="s">
         <v>137</v>
       </c>
@@ -2744,12 +2246,6 @@
       <c r="D85" t="s">
         <v>131</v>
       </c>
-      <c r="E85" t="s">
-        <v>66</v>
-      </c>
-      <c r="F85" t="s">
-        <v>66</v>
-      </c>
       <c r="G85" t="s">
         <v>137</v>
       </c>
@@ -2767,12 +2263,6 @@
       <c r="D86" t="s">
         <v>127</v>
       </c>
-      <c r="E86" t="s">
-        <v>66</v>
-      </c>
-      <c r="F86" t="s">
-        <v>66</v>
-      </c>
       <c r="G86" t="s">
         <v>137</v>
       </c>
@@ -2790,12 +2280,6 @@
       <c r="D87" t="s">
         <v>127</v>
       </c>
-      <c r="E87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F87" t="s">
-        <v>66</v>
-      </c>
       <c r="G87" t="s">
         <v>137</v>
       </c>
@@ -2813,12 +2297,6 @@
       <c r="D88" t="s">
         <v>127</v>
       </c>
-      <c r="E88" t="s">
-        <v>66</v>
-      </c>
-      <c r="F88" t="s">
-        <v>66</v>
-      </c>
       <c r="G88" t="s">
         <v>137</v>
       </c>
@@ -2836,12 +2314,6 @@
       <c r="D89" t="s">
         <v>127</v>
       </c>
-      <c r="E89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F89" t="s">
-        <v>66</v>
-      </c>
       <c r="G89" t="s">
         <v>137</v>
       </c>
@@ -2859,12 +2331,6 @@
       <c r="D90" t="s">
         <v>127</v>
       </c>
-      <c r="E90" t="s">
-        <v>66</v>
-      </c>
-      <c r="F90" t="s">
-        <v>66</v>
-      </c>
       <c r="G90" t="s">
         <v>137</v>
       </c>
@@ -2882,12 +2348,6 @@
       <c r="D91" t="s">
         <v>127</v>
       </c>
-      <c r="E91" t="s">
-        <v>66</v>
-      </c>
-      <c r="F91" t="s">
-        <v>66</v>
-      </c>
       <c r="G91" t="s">
         <v>137</v>
       </c>
@@ -2905,12 +2365,6 @@
       <c r="D92" t="s">
         <v>127</v>
       </c>
-      <c r="E92" t="s">
-        <v>66</v>
-      </c>
-      <c r="F92" t="s">
-        <v>66</v>
-      </c>
       <c r="G92" t="s">
         <v>137</v>
       </c>
@@ -2928,12 +2382,6 @@
       <c r="D93" t="s">
         <v>127</v>
       </c>
-      <c r="E93" t="s">
-        <v>66</v>
-      </c>
-      <c r="F93" t="s">
-        <v>66</v>
-      </c>
       <c r="G93" t="s">
         <v>137</v>
       </c>
@@ -2951,12 +2399,6 @@
       <c r="D94" t="s">
         <v>127</v>
       </c>
-      <c r="E94" t="s">
-        <v>66</v>
-      </c>
-      <c r="F94" t="s">
-        <v>66</v>
-      </c>
       <c r="G94" t="s">
         <v>137</v>
       </c>
@@ -2974,12 +2416,6 @@
       <c r="D95" t="s">
         <v>66</v>
       </c>
-      <c r="E95" t="s">
-        <v>66</v>
-      </c>
-      <c r="F95" t="s">
-        <v>66</v>
-      </c>
       <c r="G95" t="s">
         <v>137</v>
       </c>
@@ -2997,12 +2433,6 @@
       <c r="D96" t="s">
         <v>132</v>
       </c>
-      <c r="E96" t="s">
-        <v>66</v>
-      </c>
-      <c r="F96" t="s">
-        <v>66</v>
-      </c>
       <c r="G96" t="s">
         <v>137</v>
       </c>
@@ -3020,12 +2450,6 @@
       <c r="D97" t="s">
         <v>132</v>
       </c>
-      <c r="E97" t="s">
-        <v>66</v>
-      </c>
-      <c r="F97" t="s">
-        <v>66</v>
-      </c>
       <c r="G97" t="s">
         <v>137</v>
       </c>
@@ -3043,12 +2467,6 @@
       <c r="D98" t="s">
         <v>66</v>
       </c>
-      <c r="E98" t="s">
-        <v>66</v>
-      </c>
-      <c r="F98" t="s">
-        <v>66</v>
-      </c>
       <c r="G98" t="s">
         <v>137</v>
       </c>
@@ -3066,12 +2484,6 @@
       <c r="D99" t="s">
         <v>133</v>
       </c>
-      <c r="E99" t="s">
-        <v>66</v>
-      </c>
-      <c r="F99" t="s">
-        <v>66</v>
-      </c>
       <c r="G99" t="s">
         <v>137</v>
       </c>
@@ -3089,12 +2501,6 @@
       <c r="D100" t="s">
         <v>133</v>
       </c>
-      <c r="E100" t="s">
-        <v>66</v>
-      </c>
-      <c r="F100" t="s">
-        <v>66</v>
-      </c>
       <c r="G100" t="s">
         <v>137</v>
       </c>
@@ -3112,12 +2518,6 @@
       <c r="D101" t="s">
         <v>66</v>
       </c>
-      <c r="E101" t="s">
-        <v>66</v>
-      </c>
-      <c r="F101" t="s">
-        <v>66</v>
-      </c>
       <c r="G101" t="s">
         <v>137</v>
       </c>
@@ -3135,12 +2535,6 @@
       <c r="D102" t="s">
         <v>134</v>
       </c>
-      <c r="E102" t="s">
-        <v>66</v>
-      </c>
-      <c r="F102" t="s">
-        <v>66</v>
-      </c>
       <c r="G102" t="s">
         <v>137</v>
       </c>
@@ -3158,12 +2552,6 @@
       <c r="D103" t="s">
         <v>134</v>
       </c>
-      <c r="E103" t="s">
-        <v>66</v>
-      </c>
-      <c r="F103" t="s">
-        <v>66</v>
-      </c>
       <c r="G103" t="s">
         <v>137</v>
       </c>
@@ -3181,12 +2569,6 @@
       <c r="D104" t="s">
         <v>66</v>
       </c>
-      <c r="E104" t="s">
-        <v>66</v>
-      </c>
-      <c r="F104" t="s">
-        <v>66</v>
-      </c>
       <c r="G104" t="s">
         <v>137</v>
       </c>
@@ -3204,12 +2586,6 @@
       <c r="D105" t="s">
         <v>135</v>
       </c>
-      <c r="E105" t="s">
-        <v>66</v>
-      </c>
-      <c r="F105" t="s">
-        <v>66</v>
-      </c>
       <c r="G105" t="s">
         <v>137</v>
       </c>
@@ -3227,12 +2603,6 @@
       <c r="D106" t="s">
         <v>135</v>
       </c>
-      <c r="E106" t="s">
-        <v>66</v>
-      </c>
-      <c r="F106" t="s">
-        <v>66</v>
-      </c>
       <c r="G106" t="s">
         <v>137</v>
       </c>
@@ -3250,12 +2620,6 @@
       <c r="D107" t="s">
         <v>135</v>
       </c>
-      <c r="E107" t="s">
-        <v>66</v>
-      </c>
-      <c r="F107" t="s">
-        <v>66</v>
-      </c>
       <c r="G107" t="s">
         <v>137</v>
       </c>
@@ -3273,12 +2637,6 @@
       <c r="D108" t="s">
         <v>135</v>
       </c>
-      <c r="E108" t="s">
-        <v>66</v>
-      </c>
-      <c r="F108" t="s">
-        <v>66</v>
-      </c>
       <c r="G108" t="s">
         <v>137</v>
       </c>
@@ -3296,12 +2654,6 @@
       <c r="D109" t="s">
         <v>135</v>
       </c>
-      <c r="E109" t="s">
-        <v>66</v>
-      </c>
-      <c r="F109" t="s">
-        <v>66</v>
-      </c>
       <c r="G109" t="s">
         <v>137</v>
       </c>
@@ -3319,12 +2671,6 @@
       <c r="D110" t="s">
         <v>66</v>
       </c>
-      <c r="E110" t="s">
-        <v>66</v>
-      </c>
-      <c r="F110" t="s">
-        <v>66</v>
-      </c>
       <c r="G110" t="s">
         <v>137</v>
       </c>
@@ -3342,12 +2688,6 @@
       <c r="D111" t="s">
         <v>136</v>
       </c>
-      <c r="E111" t="s">
-        <v>66</v>
-      </c>
-      <c r="F111" t="s">
-        <v>66</v>
-      </c>
       <c r="G111" t="s">
         <v>137</v>
       </c>
@@ -3365,12 +2705,6 @@
       <c r="D112" t="s">
         <v>136</v>
       </c>
-      <c r="E112" t="s">
-        <v>66</v>
-      </c>
-      <c r="F112" t="s">
-        <v>66</v>
-      </c>
       <c r="G112" t="s">
         <v>137</v>
       </c>
@@ -3388,12 +2722,6 @@
       <c r="D113" t="s">
         <v>136</v>
       </c>
-      <c r="E113" t="s">
-        <v>66</v>
-      </c>
-      <c r="F113" t="s">
-        <v>66</v>
-      </c>
       <c r="G113" t="s">
         <v>137</v>
       </c>
@@ -3410,12 +2738,6 @@
       </c>
       <c r="D114" t="s">
         <v>136</v>
-      </c>
-      <c r="E114" t="s">
-        <v>66</v>
-      </c>
-      <c r="F114" t="s">
-        <v>66</v>
       </c>
       <c r="G114" t="s">
         <v>137</v>
